--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_5927.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_5927.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,58 +437,121 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_NUMBER</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INNING_NUMBER</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_DATE</t>
+          <t>BATTING_HAND</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_INNING</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>OPPONENT</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VENUE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DISMISSAL</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RUNS_SCORED</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>BALLS_FACED</t>
+          <t>BOWL_STYLE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>5927</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>William Alexander Young</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>INNING_NUMBER</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_DATE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_INNING</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OPPONENT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VENUE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DISMISSAL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RUNS_SCORED</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BALLS_FACED</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -503,7 +567,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +619,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +671,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4563</t>
+          <t>4563</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +723,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4566</t>
+          <t>4566</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +775,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4568</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +827,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +879,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +931,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +983,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4735</t>
+          <t>4735</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -950,6 +1014,58 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Seddon Park</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>not out</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>86*</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>113</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_5927.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_5927.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1072,4 +1073,323 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.49%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9.49%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_5927.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_5927.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1073,323 +1072,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8.33%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.36%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4563</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50.49%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4566</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4568</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.33%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.83%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4735</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9.49%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4745</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>